--- a/AppBackup/全市港航系统人员信息表.xlsx
+++ b/AppBackup/全市港航系统人员信息表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevProjects\Office.Work.Platform\Office.Work.Platform\AppBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ABEA52-EF81-499F-B06F-34B9CEBBE81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118B7B5E-4D26-4EED-8F2B-150A4729A7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="全市港航系统人员信息表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51710,11 +51709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG150"/>
+  <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9:J16"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -60429,7 +60428,9 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="66"/>
+      <c r="J130" s="65">
+        <v>20</v>
+      </c>
       <c r="K130" s="54" t="s">
         <v>749</v>
       </c>
@@ -60528,639 +60529,9 @@
       <c r="AF132" s="9"/>
       <c r="AG132" s="9"/>
     </row>
-    <row r="133" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="66"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-      <c r="M133" s="9"/>
-      <c r="N133" s="9"/>
-      <c r="O133" s="9"/>
-      <c r="P133" s="9"/>
-      <c r="Q133" s="9"/>
-      <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
-      <c r="T133" s="9"/>
-      <c r="U133" s="9"/>
-      <c r="V133" s="9"/>
-      <c r="W133" s="9"/>
-      <c r="X133" s="9"/>
-      <c r="Y133" s="9"/>
-      <c r="Z133" s="9"/>
-      <c r="AA133" s="9"/>
-      <c r="AB133" s="9"/>
-      <c r="AC133" s="9"/>
-      <c r="AD133" s="9"/>
-      <c r="AE133" s="9"/>
-      <c r="AF133" s="9"/>
-      <c r="AG133" s="9"/>
-    </row>
-    <row r="134" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="66"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-      <c r="M134" s="9"/>
-      <c r="N134" s="9"/>
-      <c r="O134" s="9"/>
-      <c r="P134" s="9"/>
-      <c r="Q134" s="9"/>
-      <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
-      <c r="T134" s="9"/>
-      <c r="U134" s="9"/>
-      <c r="V134" s="9"/>
-      <c r="W134" s="9"/>
-      <c r="X134" s="9"/>
-      <c r="Y134" s="9"/>
-      <c r="Z134" s="9"/>
-      <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
-      <c r="AC134" s="9"/>
-      <c r="AD134" s="9"/>
-      <c r="AE134" s="9"/>
-      <c r="AF134" s="9"/>
-      <c r="AG134" s="9"/>
-    </row>
-    <row r="135" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
-      <c r="J135" s="66"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-      <c r="M135" s="9"/>
-      <c r="N135" s="9"/>
-      <c r="O135" s="9"/>
-      <c r="P135" s="9"/>
-      <c r="Q135" s="9"/>
-      <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
-      <c r="T135" s="9"/>
-      <c r="U135" s="9"/>
-      <c r="V135" s="9"/>
-      <c r="W135" s="9"/>
-      <c r="X135" s="9"/>
-      <c r="Y135" s="9"/>
-      <c r="Z135" s="9"/>
-      <c r="AA135" s="9"/>
-      <c r="AB135" s="9"/>
-      <c r="AC135" s="9"/>
-      <c r="AD135" s="9"/>
-      <c r="AE135" s="9"/>
-      <c r="AF135" s="9"/>
-      <c r="AG135" s="9"/>
-    </row>
-    <row r="136" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9"/>
-      <c r="O136" s="9"/>
-      <c r="P136" s="9"/>
-      <c r="Q136" s="9"/>
-      <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
-      <c r="T136" s="9"/>
-      <c r="U136" s="9"/>
-      <c r="V136" s="9"/>
-      <c r="W136" s="9"/>
-      <c r="X136" s="9"/>
-      <c r="Y136" s="9"/>
-      <c r="Z136" s="9"/>
-      <c r="AA136" s="9"/>
-      <c r="AB136" s="9"/>
-      <c r="AC136" s="9"/>
-      <c r="AD136" s="9"/>
-      <c r="AE136" s="9"/>
-      <c r="AF136" s="9"/>
-      <c r="AG136" s="9"/>
-    </row>
-    <row r="137" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-      <c r="M137" s="9"/>
-      <c r="N137" s="9"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="9"/>
-      <c r="AA137" s="9"/>
-      <c r="AB137" s="9"/>
-      <c r="AC137" s="9"/>
-      <c r="AD137" s="9"/>
-      <c r="AE137" s="9"/>
-      <c r="AF137" s="9"/>
-      <c r="AG137" s="9"/>
-    </row>
-    <row r="138" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9"/>
-      <c r="O138" s="9"/>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="9"/>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
-      <c r="U138" s="9"/>
-      <c r="V138" s="9"/>
-      <c r="W138" s="9"/>
-      <c r="X138" s="9"/>
-      <c r="Y138" s="9"/>
-      <c r="Z138" s="9"/>
-      <c r="AA138" s="9"/>
-      <c r="AB138" s="9"/>
-      <c r="AC138" s="9"/>
-      <c r="AD138" s="9"/>
-      <c r="AE138" s="9"/>
-      <c r="AF138" s="9"/>
-      <c r="AG138" s="9"/>
-    </row>
-    <row r="139" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-      <c r="M139" s="9"/>
-      <c r="N139" s="9"/>
-      <c r="O139" s="9"/>
-      <c r="P139" s="9"/>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="9"/>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9"/>
-      <c r="U139" s="9"/>
-      <c r="V139" s="9"/>
-      <c r="W139" s="9"/>
-      <c r="X139" s="9"/>
-      <c r="Y139" s="9"/>
-      <c r="Z139" s="9"/>
-      <c r="AA139" s="9"/>
-      <c r="AB139" s="9"/>
-      <c r="AC139" s="9"/>
-      <c r="AD139" s="9"/>
-      <c r="AE139" s="9"/>
-      <c r="AF139" s="9"/>
-      <c r="AG139" s="9"/>
-    </row>
-    <row r="140" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="66"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9"/>
-      <c r="O140" s="9"/>
-      <c r="P140" s="9"/>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9"/>
-      <c r="U140" s="9"/>
-      <c r="V140" s="9"/>
-      <c r="W140" s="9"/>
-      <c r="X140" s="9"/>
-      <c r="Y140" s="9"/>
-      <c r="Z140" s="9"/>
-      <c r="AA140" s="9"/>
-      <c r="AB140" s="9"/>
-      <c r="AC140" s="9"/>
-      <c r="AD140" s="9"/>
-      <c r="AE140" s="9"/>
-      <c r="AF140" s="9"/>
-      <c r="AG140" s="9"/>
-    </row>
-    <row r="141" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
-      <c r="U141" s="9"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
-      <c r="Z141" s="9"/>
-      <c r="AA141" s="9"/>
-      <c r="AB141" s="9"/>
-      <c r="AC141" s="9"/>
-      <c r="AD141" s="9"/>
-      <c r="AE141" s="9"/>
-      <c r="AF141" s="9"/>
-      <c r="AG141" s="9"/>
-    </row>
-    <row r="142" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="9"/>
-      <c r="N142" s="9"/>
-      <c r="O142" s="9"/>
-      <c r="P142" s="9"/>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9"/>
-      <c r="U142" s="9"/>
-      <c r="V142" s="9"/>
-      <c r="W142" s="9"/>
-      <c r="X142" s="9"/>
-      <c r="Y142" s="9"/>
-      <c r="Z142" s="9"/>
-      <c r="AA142" s="9"/>
-      <c r="AB142" s="9"/>
-      <c r="AC142" s="9"/>
-      <c r="AD142" s="9"/>
-      <c r="AE142" s="9"/>
-      <c r="AF142" s="9"/>
-      <c r="AG142" s="9"/>
-    </row>
-    <row r="143" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="66"/>
-      <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="9"/>
-      <c r="N143" s="9"/>
-      <c r="O143" s="9"/>
-      <c r="P143" s="9"/>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9"/>
-      <c r="U143" s="9"/>
-      <c r="V143" s="9"/>
-      <c r="W143" s="9"/>
-      <c r="X143" s="9"/>
-      <c r="Y143" s="9"/>
-      <c r="Z143" s="9"/>
-      <c r="AA143" s="9"/>
-      <c r="AB143" s="9"/>
-      <c r="AC143" s="9"/>
-      <c r="AD143" s="9"/>
-      <c r="AE143" s="9"/>
-      <c r="AF143" s="9"/>
-      <c r="AG143" s="9"/>
-    </row>
-    <row r="144" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="66"/>
-      <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="9"/>
-      <c r="N144" s="9"/>
-      <c r="O144" s="9"/>
-      <c r="P144" s="9"/>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-      <c r="T144" s="9"/>
-      <c r="U144" s="9"/>
-      <c r="V144" s="9"/>
-      <c r="W144" s="9"/>
-      <c r="X144" s="9"/>
-      <c r="Y144" s="9"/>
-      <c r="Z144" s="9"/>
-      <c r="AA144" s="9"/>
-      <c r="AB144" s="9"/>
-      <c r="AC144" s="9"/>
-      <c r="AD144" s="9"/>
-      <c r="AE144" s="9"/>
-      <c r="AF144" s="9"/>
-      <c r="AG144" s="9"/>
-    </row>
-    <row r="145" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="66"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
-      <c r="T145" s="9"/>
-      <c r="U145" s="9"/>
-      <c r="V145" s="9"/>
-      <c r="W145" s="9"/>
-      <c r="X145" s="9"/>
-      <c r="Y145" s="9"/>
-      <c r="Z145" s="9"/>
-      <c r="AA145" s="9"/>
-      <c r="AB145" s="9"/>
-      <c r="AC145" s="9"/>
-      <c r="AD145" s="9"/>
-      <c r="AE145" s="9"/>
-      <c r="AF145" s="9"/>
-      <c r="AG145" s="9"/>
-    </row>
-    <row r="146" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
-      <c r="J146" s="66"/>
-      <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
-      <c r="N146" s="9"/>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9"/>
-      <c r="V146" s="9"/>
-      <c r="W146" s="9"/>
-      <c r="X146" s="9"/>
-      <c r="Y146" s="9"/>
-      <c r="Z146" s="9"/>
-      <c r="AA146" s="9"/>
-      <c r="AB146" s="9"/>
-      <c r="AC146" s="9"/>
-      <c r="AD146" s="9"/>
-      <c r="AE146" s="9"/>
-      <c r="AF146" s="9"/>
-      <c r="AG146" s="9"/>
-    </row>
-    <row r="147" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="66"/>
-      <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
-      <c r="N147" s="9"/>
-      <c r="O147" s="9"/>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
-      <c r="T147" s="9"/>
-      <c r="U147" s="9"/>
-      <c r="V147" s="9"/>
-      <c r="W147" s="9"/>
-      <c r="X147" s="9"/>
-      <c r="Y147" s="9"/>
-      <c r="Z147" s="9"/>
-      <c r="AA147" s="9"/>
-      <c r="AB147" s="9"/>
-      <c r="AC147" s="9"/>
-      <c r="AD147" s="9"/>
-      <c r="AE147" s="9"/>
-      <c r="AF147" s="9"/>
-      <c r="AG147" s="9"/>
-    </row>
-    <row r="148" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="9"/>
-      <c r="N148" s="9"/>
-      <c r="O148" s="9"/>
-      <c r="P148" s="9"/>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
-      <c r="T148" s="9"/>
-      <c r="U148" s="9"/>
-      <c r="V148" s="9"/>
-      <c r="W148" s="9"/>
-      <c r="X148" s="9"/>
-      <c r="Y148" s="9"/>
-      <c r="Z148" s="9"/>
-      <c r="AA148" s="9"/>
-      <c r="AB148" s="9"/>
-      <c r="AC148" s="9"/>
-      <c r="AD148" s="9"/>
-      <c r="AE148" s="9"/>
-      <c r="AF148" s="9"/>
-      <c r="AG148" s="9"/>
-    </row>
-    <row r="149" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="9"/>
-      <c r="N149" s="9"/>
-      <c r="O149" s="9"/>
-      <c r="P149" s="9"/>
-      <c r="Q149" s="9"/>
-      <c r="R149" s="9"/>
-      <c r="S149" s="9"/>
-      <c r="T149" s="9"/>
-      <c r="U149" s="9"/>
-      <c r="V149" s="9"/>
-      <c r="W149" s="9"/>
-      <c r="X149" s="9"/>
-      <c r="Y149" s="9"/>
-      <c r="Z149" s="9"/>
-      <c r="AA149" s="9"/>
-      <c r="AB149" s="9"/>
-      <c r="AC149" s="9"/>
-      <c r="AD149" s="9"/>
-      <c r="AE149" s="9"/>
-      <c r="AF149" s="9"/>
-      <c r="AG149" s="9"/>
-    </row>
-    <row r="150" spans="1:33" ht="24.95" customHeight="1">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9"/>
-      <c r="N150" s="9"/>
-      <c r="O150" s="9"/>
-      <c r="P150" s="9"/>
-      <c r="Q150" s="9"/>
-      <c r="R150" s="9"/>
-      <c r="S150" s="9"/>
-      <c r="T150" s="9"/>
-      <c r="U150" s="9"/>
-      <c r="V150" s="9"/>
-      <c r="W150" s="9"/>
-      <c r="X150" s="9"/>
-      <c r="Y150" s="9"/>
-      <c r="Z150" s="9"/>
-      <c r="AA150" s="9"/>
-      <c r="AB150" s="9"/>
-      <c r="AC150" s="9"/>
-      <c r="AD150" s="9"/>
-      <c r="AE150" s="9"/>
-      <c r="AF150" s="9"/>
-      <c r="AG150" s="9"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="O2:P12 P13 Q2:XFD13 V117:V517 V14:V115 W14:XFD517 K3:N13 K14:U30 A2:N2 A31:U517 A3:J30" name="无需密码即可编辑区域"/>
+    <protectedRange sqref="O2:P12 P13 Q2:XFD13 V14:V115 K3:N13 K14:U30 A2:N2 A3:J30 A31:U499 W14:XFD499 V117:V499" name="无需密码即可编辑区域"/>
   </protectedRanges>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D5">
@@ -76002,6 +75373,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 M9:M1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"硕土,研究生,大学本科,大学专科,高中,中专及以下"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W37 W39 W41:W60 W62:W1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"办事员,科员,副科长,科长,副处长,处长,主任,副主任,股长,副股长,主席,副主席"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V23 V27:V37 V40:V73 V83:V115 V117:V1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>"单位领导,综合科,政工科,发展计划科,安全运行科,科技信息科,财务审计科,船闸事务科,工程建设科,工会,政秘股,运调股,养护股,财务股"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"中共党员,民进成员,民盟成员,其他党派,无党派"</formula1>
     </dataValidation>
@@ -76011,17 +75391,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"市港航事业发展中心,市成子河船闸管理处,市大柳巷船闸管理处,市古泊河船闸管理处,泗洪县港航事业发展中心,泗阳县港航事业发展中心,沭阳县港航事业发展中心"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7 M9:M1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"硕土,研究生,大学本科,大学专科,高中,中专及以下"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W37 W39 W41:W60 W62:W1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>"办事员,科员,副科长,科长,副处长,处长,主任,副主任,股长,副股长,主席,副主席"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"专技岗,管理岗,工勤岗,双肩挑"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V23 V27:V37 V117:V1048576 V40:V73 V83:V115" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>"单位领导,综合科,政工科,发展计划科,安全运行科,科技信息科,财务审计科,船闸事务科,工程建设科,工会,政秘股,运调股,养护股,财务股"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"党总支书记,党总支副书记,党总支委员,党支部书记,党支部副书记,党支部委员"</formula1>
